--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T13:53:20+00:00</t>
+    <t>2025-06-18T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1360,7 +1360,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator|https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-healthcareservice)
 </t>
   </si>
   <si>
@@ -1789,7 +1789,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.40625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:31:38+00:00</t>
+    <t>2025-06-20T12:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1360,7 +1360,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator|https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-healthcareservice)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator|https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-healthcareservice-lrm)
 </t>
   </si>
   <si>
@@ -1789,7 +1789,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="147.5859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:06:52+00:00</t>
+    <t>2025-06-20T16:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:26:05+00:00</t>
+    <t>2025-06-23T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T15:53:38+00:00</t>
+    <t>2025-06-25T07:29:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T07:29:13+00:00</t>
+    <t>2025-06-25T08:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T08:20:21+00:00</t>
+    <t>2025-07-01T07:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:34:24+00:00</t>
+    <t>2025-07-01T14:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1360,7 +1360,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator|https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-healthcareservice-lrm)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-lrm|https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-healthcareservice-lrm)
 </t>
   </si>
   <si>
@@ -1789,7 +1789,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="147.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="141.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -651,6 +651,19 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>Appointment.extension:categorieOrientation</t>
+  </si>
+  <si>
+    <t>categorieOrientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-categorie-orientation}
+</t>
+  </si>
+  <si>
+    <t>Extension créée afin pour ajouter la catégorie d'orientation dans un RDV</t>
   </si>
   <si>
     <t>Appointment.modifierExtension</t>
@@ -1770,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4168,11 +4181,13 @@
         <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4185,26 +4200,22 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O21" t="s" s="2">
         <v>207</v>
       </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4252,7 +4263,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4270,7 +4281,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4284,42 +4295,46 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4367,7 +4382,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4379,30 +4394,30 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4410,7 +4425,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -4422,16 +4437,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4482,53 +4497,53 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4540,17 +4555,15 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4587,37 +4600,37 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4631,46 +4644,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4694,49 +4705,49 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4745,15 +4756,15 @@
         <v>77</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4770,25 +4781,25 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4813,13 +4824,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4837,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4855,7 +4866,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4864,15 +4875,15 @@
         <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>239</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4895,19 +4906,19 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4917,10 +4928,10 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>77</v>
@@ -4932,13 +4943,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4956,7 +4967,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4974,7 +4985,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4983,15 +4994,15 @@
         <v>77</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4999,7 +5010,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5014,18 +5025,20 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5034,10 +5047,10 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>77</v>
@@ -5073,7 +5086,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5091,7 +5104,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5100,15 +5113,15 @@
         <v>77</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5116,7 +5129,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -5131,16 +5144,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5154,7 +5167,7 @@
         <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>77</v>
@@ -5190,7 +5203,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5202,13 +5215,13 @@
         <v>203</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5217,15 +5230,15 @@
         <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5248,16 +5261,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5307,7 +5320,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5319,13 +5332,13 @@
         <v>203</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5334,15 +5347,15 @@
         <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5350,7 +5363,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5359,22 +5372,22 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5400,13 +5413,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5427,39 +5440,39 @@
         <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5467,7 +5480,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5476,21 +5489,23 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5515,11 +5530,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5537,10 +5554,10 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
@@ -5552,19 +5569,19 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -5583,7 +5600,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5595,7 +5612,7 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>292</v>
@@ -5656,7 +5673,7 @@
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5668,10 +5685,10 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5682,10 +5699,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5708,17 +5725,15 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5747,7 +5762,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5765,7 +5780,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5780,13 +5795,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5797,10 +5812,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5814,7 +5829,7 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>77</v>
@@ -5823,15 +5838,17 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5856,11 +5873,11 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5878,7 +5895,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5893,16 +5910,16 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>77</v>
@@ -5910,10 +5927,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5924,10 +5941,10 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>77</v>
@@ -5936,13 +5953,13 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5969,11 +5986,11 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5991,13 +6008,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -6009,24 +6026,24 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6037,7 +6054,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6049,13 +6066,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6084,11 +6101,9 @@
       <c r="X37" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6106,13 +6121,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -6121,27 +6136,27 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6161,16 +6176,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6197,13 +6212,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6221,7 +6236,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6236,10 +6251,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6248,15 +6263,15 @@
         <v>77</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6267,7 +6282,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6279,17 +6294,15 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6338,13 +6351,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -6353,27 +6366,27 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6396,15 +6409,17 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6453,7 +6468,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6468,27 +6483,27 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6499,7 +6514,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6511,13 +6526,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6568,13 +6583,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6583,27 +6598,27 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6611,10 +6626,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6623,16 +6638,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6683,13 +6698,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6698,27 +6713,27 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="AO42" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6726,7 +6741,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6744,10 +6759,10 @@
         <v>124</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6798,7 +6813,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6813,27 +6828,27 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6853,16 +6868,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6913,7 +6928,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6928,27 +6943,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6959,7 +6974,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6971,13 +6986,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7028,13 +7043,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -7043,13 +7058,13 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7060,10 +7075,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7074,10 +7089,10 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>77</v>
@@ -7086,17 +7101,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7145,13 +7158,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -7160,13 +7173,13 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7177,10 +7190,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7194,7 +7207,7 @@
         <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>77</v>
@@ -7203,16 +7216,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7262,7 +7275,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7277,27 +7290,27 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7323,12 +7336,14 @@
         <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7377,7 +7392,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7392,10 +7407,10 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>397</v>
@@ -7404,7 +7419,7 @@
         <v>77</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7416,14 +7431,14 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7435,13 +7450,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7498,7 +7513,7 @@
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7507,35 +7522,35 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7550,13 +7565,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7607,10 +7622,10 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7619,30 +7634,30 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>409</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7650,10 +7665,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7665,13 +7680,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>104</v>
+        <v>412</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7722,53 +7737,53 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>105</v>
+        <v>409</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>106</v>
+        <v>415</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7780,17 +7795,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7839,19 +7852,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7871,14 +7884,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>417</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7891,26 +7904,24 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>418</v>
+        <v>110</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>419</v>
+        <v>111</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7958,7 +7969,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7976,7 +7987,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7990,14 +8001,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8010,13 +8021,13 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>422</v>
@@ -8025,9 +8036,11 @@
         <v>423</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8051,13 +8064,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8088,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8087,30 +8100,30 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>427</v>
+        <v>193</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8121,10 +8134,10 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -8133,15 +8146,17 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>235</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8166,13 +8181,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8190,13 +8205,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -8208,24 +8223,24 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>434</v>
+        <v>106</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8239,7 +8254,7 @@
         <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>77</v>
@@ -8248,13 +8263,13 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>170</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8281,13 +8296,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8305,7 +8320,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8323,24 +8338,24 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8348,13 +8363,13 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>77</v>
@@ -8366,10 +8381,10 @@
         <v>170</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8396,13 +8411,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8420,10 +8435,10 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>88</v>
@@ -8438,24 +8453,24 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8463,28 +8478,28 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8511,13 +8526,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8535,10 +8550,10 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -8553,24 +8568,24 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>106</v>
+        <v>453</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8581,7 +8596,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8593,17 +8608,15 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N59" t="s" s="2">
         <v>458</v>
       </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8652,13 +8665,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8667,23 +8680,140 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO59" t="s" s="2">
+      <c r="B60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>460</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO59">
+  <autoFilter ref="A1:AO60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8693,7 +8823,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -663,7 +663,7 @@
 </t>
   </si>
   <si>
-    <t>Extension créée afin pour ajouter la catégorie d'orientation dans un RDV</t>
+    <t>Extension créée afin d'ajouter la catégorie d'orientation dans un RDV</t>
   </si>
   <si>
     <t>Appointment.modifierExtension</t>
@@ -4194,7 +4194,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>88</v>
@@ -7201,13 +7201,13 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>77</v>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T15:03:40+00:00</t>
+    <t>2025-08-22T16:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T16:11:41+00:00</t>
+    <t>2025-08-25T06:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T06:59:32+00:00</t>
+    <t>2025-08-25T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T09:39:34+00:00</t>
+    <t>2025-08-25T11:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T11:15:03+00:00</t>
+    <t>2025-08-26T14:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:01:05+00:00</t>
+    <t>2025-08-26T14:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:47:20+00:00</t>
+    <t>2025-08-26T15:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T15:19:13+00:00</t>
+    <t>2025-08-28T09:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T09:04:45+00:00</t>
+    <t>2025-08-28T13:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:33:26+00:00</t>
+    <t>2025-08-28T13:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:53:19+00:00</t>
+    <t>2025-08-29T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T14:53:04+00:00</t>
+    <t>2025-09-02T14:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:06:24+00:00</t>
+    <t>2025-09-02T14:14:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:14:48+00:00</t>
+    <t>2025-09-02T15:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T15:31:32+00:00</t>
+    <t>2025-09-02T16:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:40:07+00:00</t>
+    <t>2025-09-03T15:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -893,7 +893,7 @@
     <t>Appointment.status</t>
   </si>
   <si>
-    <t>proposed | pending | booked | arrived | fulfilled | cancelled | noshow | entered-in-error | checked-in | waitlist</t>
+    <t>Statuts exploités par la PTF SAS : PENDING, BOOKED, NOSHOW, CANCELLED</t>
   </si>
   <si>
     <t>The overall status of the Appointment. Each of the participants has their own participation status which indicates their involvement in the process, however this status indicates the shared status.</t>
@@ -1417,9 +1417,6 @@
   </si>
   <si>
     <t>Appointment.participant.status</t>
-  </si>
-  <si>
-    <t>accepted | declined | tentative | needs-action</t>
   </si>
   <si>
     <t>Participation status of the actor.</t>
@@ -8496,10 +8493,10 @@
         <v>170</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8529,10 +8526,10 @@
         <v>229</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8568,24 +8565,24 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8611,10 +8608,10 @@
         <v>263</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8665,7 +8662,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8697,10 +8694,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8726,13 +8723,13 @@
         <v>263</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8782,7 +8779,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8800,16 +8797,16 @@
         <v>360</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T15:56:47+00:00</t>
+    <t>2025-09-03T16:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1358,10 +1358,7 @@
 This value SHALL be the same when creating an AppointmentResponse so that they can be matched, and subsequently update the Appointment.</t>
   </si>
   <si>
-    <t>Role of participant in encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-appointmentparticipanttype</t>
   </si>
   <si>
     <t>(performer | reusableDevice | subject | location).@typeCode</t>
@@ -1417,6 +1414,9 @@
   </si>
   <si>
     <t>Appointment.participant.status</t>
+  </si>
+  <si>
+    <t>Statuts exploités par la PTF SAS : ACCEPTED, NEEDS-ACTION</t>
   </si>
   <si>
     <t>Participation status of the actor.</t>
@@ -1814,7 +1814,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -8178,13 +8178,11 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y55" s="2"/>
+      <c r="Z55" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8220,7 +8218,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>106</v>
@@ -8229,15 +8227,15 @@
         <v>77</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8260,13 +8258,13 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8317,7 +8315,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8335,24 +8333,24 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>440</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8378,10 +8376,10 @@
         <v>170</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8411,11 +8409,11 @@
         <v>229</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8432,7 +8430,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8450,10 +8448,10 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8464,10 +8462,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8493,7 +8491,7 @@
         <v>170</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>281</v>
+        <v>448</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>449</v>
@@ -8547,7 +8545,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>88</v>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -768,7 +768,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -864,7 +864,7 @@
     <t>Appointment.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
